--- a/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_TipsType.xlsx
+++ b/TRANSLATIONS/01_UPLOAD_YOUR_CONTRIBUTIONS/ko/KO_Gameplay_TipsType.xlsx
@@ -6491,7 +6491,7 @@
     <t>密境事件配置类型填写错误</t>
   </si>
   <si>
-    <t>비경 이벤트 설정 타입이 잘못 입력되었습니다。</t>
+    <t>비경 이벤트 설정 타입이 잘못 입력되었습니다.</t>
   </si>
   <si>
     <t>TipsType_10277_Desc</t>
@@ -16255,7 +16255,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -16274,9 +16274,6 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -16503,7 +16500,6 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="8" max="8" width="19.38"/>
-    <col customWidth="1" min="9" max="9" width="23.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -22604,7 +22600,7 @@
       <c r="H226" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="I226" s="8" t="s">
+      <c r="I226" s="5" t="s">
         <v>686</v>
       </c>
     </row>
@@ -24926,7 +24922,7 @@
       <c r="H312" s="4" t="s">
         <v>928</v>
       </c>
-      <c r="I312" s="8" t="s">
+      <c r="I312" s="5" t="s">
         <v>929</v>
       </c>
     </row>
@@ -26816,7 +26812,7 @@
       <c r="H382" s="4" t="s">
         <v>1136</v>
       </c>
-      <c r="I382" s="8" t="s">
+      <c r="I382" s="5" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -32648,7 +32644,7 @@
       <c r="H598" s="4" t="s">
         <v>1977</v>
       </c>
-      <c r="I598" s="9" t="s">
+      <c r="I598" s="8" t="s">
         <v>1977</v>
       </c>
     </row>
@@ -34619,7 +34615,7 @@
       <c r="H671" s="4" t="s">
         <v>2201</v>
       </c>
-      <c r="I671" s="8" t="s">
+      <c r="I671" s="5" t="s">
         <v>2202</v>
       </c>
     </row>
@@ -35510,7 +35506,7 @@
       <c r="H704" s="4" t="s">
         <v>2321</v>
       </c>
-      <c r="I704" s="8" t="s">
+      <c r="I704" s="5" t="s">
         <v>2322</v>
       </c>
     </row>
@@ -41693,7 +41689,7 @@
       <c r="H933" s="6" t="s">
         <v>3192</v>
       </c>
-      <c r="I933" s="10" t="s">
+      <c r="I933" s="9" t="s">
         <v>3193</v>
       </c>
     </row>
@@ -45716,7 +45712,7 @@
       <c r="H1082" s="4" t="s">
         <v>3704</v>
       </c>
-      <c r="I1082" s="8" t="s">
+      <c r="I1082" s="5" t="s">
         <v>3705</v>
       </c>
     </row>
@@ -49199,7 +49195,7 @@
       <c r="H1211" s="4" t="s">
         <v>4149</v>
       </c>
-      <c r="I1211" s="11" t="s">
+      <c r="I1211" s="10" t="s">
         <v>4150</v>
       </c>
     </row>
@@ -49604,7 +49600,7 @@
       <c r="H1226" s="4" t="s">
         <v>4187</v>
       </c>
-      <c r="I1226" s="8" t="s">
+      <c r="I1226" s="5" t="s">
         <v>4188</v>
       </c>
     </row>
@@ -57974,7 +57970,7 @@
       <c r="H1536" s="4" t="s">
         <v>5125</v>
       </c>
-      <c r="I1536" s="8" t="s">
+      <c r="I1536" s="5" t="s">
         <v>5126</v>
       </c>
     </row>
@@ -59756,7 +59752,7 @@
       <c r="H1602" s="4" t="s">
         <v>5313</v>
       </c>
-      <c r="I1602" s="8" t="s">
+      <c r="I1602" s="5" t="s">
         <v>5314</v>
       </c>
     </row>
@@ -60323,7 +60319,7 @@
       <c r="H1623" s="4" t="s">
         <v>5371</v>
       </c>
-      <c r="I1623" s="8" t="s">
+      <c r="I1623" s="5" t="s">
         <v>5372</v>
       </c>
     </row>
